--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>7004.242628568041</v>
+        <v>57.82797790579423</v>
       </c>
       <c r="R2">
-        <v>7004.242628568041</v>
+        <v>520.4518011521481</v>
       </c>
       <c r="S2">
-        <v>0.1000941208871556</v>
+        <v>0.0006208654685319406</v>
       </c>
       <c r="T2">
-        <v>0.1000941208871556</v>
+        <v>0.0006546602661685497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>9270.597591524749</v>
+        <v>10591.39425162369</v>
       </c>
       <c r="R3">
-        <v>9270.597591524749</v>
+        <v>95322.54826461316</v>
       </c>
       <c r="S3">
-        <v>0.132481463768476</v>
+        <v>0.1137136588997341</v>
       </c>
       <c r="T3">
-        <v>0.132481463768476</v>
+        <v>0.1199032930246946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>445.7743082773446</v>
+        <v>9864.665656876985</v>
       </c>
       <c r="R4">
-        <v>445.7743082773446</v>
+        <v>88781.99091189286</v>
       </c>
       <c r="S4">
-        <v>0.006370337218061613</v>
+        <v>0.1059111953550463</v>
       </c>
       <c r="T4">
-        <v>0.006370337218061613</v>
+        <v>0.111676127688839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>391.450386706388</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>391.450386706388</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.6299672705088303</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.6299672705088303</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>18466.28549297034</v>
+        <v>484.5640559474414</v>
       </c>
       <c r="R5">
-        <v>18466.28549297034</v>
+        <v>2907.384335684648</v>
       </c>
       <c r="S5">
-        <v>0.2638924307006743</v>
+        <v>0.00520248330522035</v>
       </c>
       <c r="T5">
-        <v>0.2638924307006743</v>
+        <v>0.003657109071080268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H6">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I6">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J6">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>24441.40086142879</v>
+        <v>164.4107416224199</v>
       </c>
       <c r="R6">
-        <v>24441.40086142879</v>
+        <v>1479.696674601779</v>
       </c>
       <c r="S6">
-        <v>0.3492798097109091</v>
+        <v>0.001765182802957039</v>
       </c>
       <c r="T6">
-        <v>0.3492798097109091</v>
+        <v>0.001861264802425635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>1175.258493831436</v>
+        <v>30112.39622733561</v>
       </c>
       <c r="R7">
-        <v>1175.258493831436</v>
+        <v>271011.5660460205</v>
       </c>
       <c r="S7">
-        <v>0.01679503009724693</v>
+        <v>0.323299338302315</v>
       </c>
       <c r="T7">
-        <v>0.01679503009724693</v>
+        <v>0.3408970889709275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>14.05489004251636</v>
+        <v>28046.23393794744</v>
       </c>
       <c r="R8">
-        <v>14.05489004251636</v>
+        <v>252416.105441527</v>
       </c>
       <c r="S8">
-        <v>0.0002008513893041599</v>
+        <v>0.3011161518185373</v>
       </c>
       <c r="T8">
-        <v>0.0002008513893041599</v>
+        <v>0.3175064326951399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>18.60261511299695</v>
+        <v>1377.664215263942</v>
       </c>
       <c r="R9">
-        <v>18.60261511299695</v>
+        <v>8265.985291583655</v>
       </c>
       <c r="S9">
-        <v>0.0002658406489722384</v>
+        <v>0.01479118187191243</v>
       </c>
       <c r="T9">
-        <v>0.0002658406489722384</v>
+        <v>0.01039752791546495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H10">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I10">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J10">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>0.8945019781386065</v>
+        <v>0.1745322503614445</v>
       </c>
       <c r="R10">
-        <v>0.8945019781386065</v>
+        <v>1.570790253253</v>
       </c>
       <c r="S10">
-        <v>1.278287944629783E-05</v>
+        <v>1.873851573560463E-06</v>
       </c>
       <c r="T10">
-        <v>1.278287944629783E-05</v>
+        <v>1.975848605025677E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H11">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I11">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J11">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>3828.504123969733</v>
+        <v>31.96618557564901</v>
       </c>
       <c r="R11">
-        <v>3828.504123969733</v>
+        <v>287.695670180841</v>
       </c>
       <c r="S11">
-        <v>0.05471123359413729</v>
+        <v>0.0003432023996574103</v>
       </c>
       <c r="T11">
-        <v>0.05471123359413729</v>
+        <v>0.0003618835089035821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>5067.288926579136</v>
+        <v>29.77282551644412</v>
       </c>
       <c r="R12">
-        <v>5067.288926579136</v>
+        <v>267.9554296479971</v>
       </c>
       <c r="S12">
-        <v>0.07241408633082305</v>
+        <v>0.0003196535644718549</v>
       </c>
       <c r="T12">
-        <v>0.07241408633082305</v>
+        <v>0.0003370528692692217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4741663333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.422499</v>
+      </c>
+      <c r="I13">
+        <v>0.0006804315772309074</v>
+      </c>
+      <c r="J13">
+        <v>0.0007119498507637953</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>1.462476437729667</v>
+      </c>
+      <c r="R13">
+        <v>8.774858626378002</v>
+      </c>
+      <c r="S13">
+        <v>1.570176152808161E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.103762398596573E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.184895</v>
+      </c>
+      <c r="I14">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J14">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>0.02268552767388889</v>
+      </c>
+      <c r="R14">
+        <v>0.204169749065</v>
+      </c>
+      <c r="S14">
+        <v>2.43561356945391E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.568188292759591E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.184895</v>
+      </c>
+      <c r="I15">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J15">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>4.154932890645</v>
+      </c>
+      <c r="R15">
+        <v>37.394396015805</v>
+      </c>
+      <c r="S15">
+        <v>4.460910530317201E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.703725723443588E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.184895</v>
+      </c>
+      <c r="I16">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J16">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>3.869842139687222</v>
+      </c>
+      <c r="R16">
+        <v>34.82857925718501</v>
+      </c>
+      <c r="S16">
+        <v>4.154825121354996E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.380979548212879E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.184895</v>
+      </c>
+      <c r="I17">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J17">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>0.1900912274483333</v>
+      </c>
+      <c r="R17">
+        <v>1.14054736469</v>
+      </c>
+      <c r="S17">
+        <v>2.0408992890221E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.434659347307193E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H18">
+        <v>185.101749</v>
+      </c>
+      <c r="I18">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J18">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>34.0663418380005</v>
+      </c>
+      <c r="R18">
+        <v>204.398051028003</v>
+      </c>
+      <c r="S18">
+        <v>0.0003657505597182604</v>
+      </c>
+      <c r="T18">
+        <v>0.0002571060032727355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H19">
+        <v>185.101749</v>
+      </c>
+      <c r="I19">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J19">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>6239.368385051098</v>
+      </c>
+      <c r="R19">
+        <v>37436.21031030659</v>
+      </c>
+      <c r="S19">
+        <v>0.06698848059392341</v>
+      </c>
+      <c r="T19">
+        <v>0.04708985414563392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H13">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I13">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J13">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q13">
-        <v>243.6592888199932</v>
-      </c>
-      <c r="R13">
-        <v>243.6592888199932</v>
-      </c>
-      <c r="S13">
-        <v>0.003482012774793449</v>
-      </c>
-      <c r="T13">
-        <v>0.003482012774793449</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H20">
+        <v>185.101749</v>
+      </c>
+      <c r="I20">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J20">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>5811.254077260124</v>
+      </c>
+      <c r="R20">
+        <v>34867.52446356075</v>
+      </c>
+      <c r="S20">
+        <v>0.06239206550355177</v>
+      </c>
+      <c r="T20">
+        <v>0.04385878345587678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H21">
+        <v>185.101749</v>
+      </c>
+      <c r="I21">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J21">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>285.4556802799695</v>
+      </c>
+      <c r="R21">
+        <v>1141.822721119878</v>
+      </c>
+      <c r="S21">
+        <v>0.003064772124158419</v>
+      </c>
+      <c r="T21">
+        <v>0.001436263578819112</v>
       </c>
     </row>
   </sheetData>
